--- a/Experiments/Measurements/Single Banner Horizontal/Straight path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/Straight path/Antenna_2/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>147.5211194428529</v>
+        <v>147.5211194428528</v>
       </c>
       <c r="H12" t="n">
-        <v>83.24328111675143</v>
+        <v>83.24328111675139</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-39.2825506558497</v>
+        <v>-39.28255065584979</v>
       </c>
       <c r="H13" t="n">
         <v>123.4895306383451</v>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>106.3477607413971</v>
+        <v>106.3477607413967</v>
       </c>
       <c r="H14" t="n">
-        <v>122.7964349806768</v>
+        <v>122.7964349806766</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>123.1163340722335</v>
+        <v>123.1163340722331</v>
       </c>
       <c r="H15" t="n">
-        <v>107.525411037673</v>
+        <v>107.5254110376728</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>141.5864888587803</v>
+        <v>141.58648885878</v>
       </c>
       <c r="H16" t="n">
-        <v>94.00275954772587</v>
+        <v>94.00275954772566</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>130.6238226417485</v>
+        <v>130.6238226417481</v>
       </c>
       <c r="H17" t="n">
-        <v>82.9822428783321</v>
+        <v>82.98224287833187</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>140.049934251235</v>
+        <v>140.0499342512352</v>
       </c>
       <c r="H18" t="n">
-        <v>82.64846228903511</v>
+        <v>82.64846228903522</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>25.0084361750098</v>
+        <v>25.00843617500998</v>
       </c>
       <c r="H19" t="n">
-        <v>122.8416285105492</v>
+        <v>122.8416285105493</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>129.9155252080989</v>
+        <v>129.9155252080993</v>
       </c>
       <c r="H24" t="n">
-        <v>91.08045414780736</v>
+        <v>91.08045414780759</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>89.52919276296164</v>
+        <v>89.52919276296146</v>
       </c>
       <c r="H29" t="n">
-        <v>100.7128830368779</v>
+        <v>100.7128830368778</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>113.6314041517841</v>
+        <v>113.6314041517839</v>
       </c>
       <c r="H30" t="n">
-        <v>100.5555608467314</v>
+        <v>100.5555608467313</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>106.2134976512724</v>
+        <v>106.2134976512721</v>
       </c>
       <c r="H32" t="n">
-        <v>104.1127516607036</v>
+        <v>104.1127516607035</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>156.5207417635757</v>
+        <v>156.5207417635754</v>
       </c>
       <c r="H34" t="n">
-        <v>91.02907135155731</v>
+        <v>91.02907135155715</v>
       </c>
     </row>
     <row r="35">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>23.22458427749248</v>
+        <v>23.22458427749229</v>
       </c>
       <c r="H35" t="n">
         <v>111.3471295298129</v>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>42.12807011498821</v>
+        <v>42.12807011498803</v>
       </c>
       <c r="H36" t="n">
         <v>114.986936512616</v>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>135.729461012152</v>
+        <v>135.7294610121518</v>
       </c>
       <c r="H37" t="n">
-        <v>91.41765776343151</v>
+        <v>91.41765776343141</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>122.3700182747845</v>
+        <v>122.3700182747849</v>
       </c>
       <c r="H38" t="n">
-        <v>87.8429336542831</v>
+        <v>87.84293365428331</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>147.7421905145211</v>
+        <v>147.7421905145213</v>
       </c>
       <c r="H40" t="n">
-        <v>96.91043146304935</v>
+        <v>96.91043146304945</v>
       </c>
     </row>
     <row r="41">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>115.7819410065687</v>
+        <v>115.7819410065691</v>
       </c>
       <c r="H45" t="n">
-        <v>111.1004330156405</v>
+        <v>111.1004330156407</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>103.48813411802</v>
+        <v>103.4881341180202</v>
       </c>
       <c r="H46" t="n">
-        <v>110.9798995244679</v>
+        <v>110.979899524468</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>129.1517800724201</v>
+        <v>129.1517800724205</v>
       </c>
       <c r="H47" t="n">
-        <v>100.4680474482023</v>
+        <v>100.4680474482025</v>
       </c>
     </row>
     <row r="48">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>81.23194540318934</v>
+        <v>81.23194540318916</v>
       </c>
       <c r="H48" t="n">
         <v>110.8392851929711</v>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>108.1426686253954</v>
+        <v>108.1426686253952</v>
       </c>
       <c r="H50" t="n">
-        <v>90.2678521031209</v>
+        <v>90.2678521031208</v>
       </c>
     </row>
     <row r="51">
